--- a/fuentes/contenidos/grado09/guion02/EsqueletoGuion_MA_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/EsqueletoGuion_MA_09_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\guion02.9.REEMPLAZAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PARA REEMPLAZAR GITHUB FINALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" tabRatio="729" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="7560" tabRatio="729" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="93">
   <si>
     <t>FICHA</t>
   </si>
@@ -99,9 +99,6 @@
     <t>si</t>
   </si>
   <si>
-    <t>Mapa Conceptual</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -183,18 +180,12 @@
     <t>Ejercita la racionalización</t>
   </si>
   <si>
-    <t>Competencias: estudio del número áureo</t>
-  </si>
-  <si>
     <t>sí</t>
   </si>
   <si>
     <t xml:space="preserve">En el conjunto de los números reales se establecen operaciones como la potenciación y la radicación. Aprende a representar y operar fácilmente y de forma abreviada valores numéricos con escritura muy extensa y poco convencional; por qué la radicación es la operación inversa de la potenciación y a utilizar sus propiedades para simplificar expresiones con radicales.  </t>
   </si>
   <si>
-    <t>Potenciación de números reales con exponente un número entero o un número racional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notación científica </t>
   </si>
   <si>
@@ -207,45 +198,21 @@
     <t>Refuerza tu aprendizaje: Radicación de números reales, operaciones y propiedades</t>
   </si>
   <si>
-    <t>Practica operaciones de números reales con radicales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Racionalización de una fracción con expresiones radicales en el denominador </t>
-  </si>
-  <si>
     <t>Fin de tema</t>
   </si>
   <si>
-    <t xml:space="preserve">Potenciación de números reales  </t>
-  </si>
-  <si>
-    <t>Potencias con exponentes números enteros</t>
-  </si>
-  <si>
     <t>Potencia con exponente número entero positivo</t>
   </si>
   <si>
     <t>Potencia con exponente número entero negativo</t>
   </si>
   <si>
-    <t>Potencia con exponente número racional positivo en forma de fracción</t>
-  </si>
-  <si>
-    <t>Potencia con exponente número racional negativo en forma de fracción</t>
-  </si>
-  <si>
-    <t>Propiedades de la  potenciación de números reales</t>
-  </si>
-  <si>
     <t>Expresión de un número real en notación científica</t>
   </si>
   <si>
     <t xml:space="preserve">Operaciones con números reales en notación científica </t>
   </si>
   <si>
-    <t xml:space="preserve">Radicación de números reales </t>
-  </si>
-  <si>
     <t>Propiedades de la radicación de números reales</t>
   </si>
   <si>
@@ -258,15 +225,9 @@
     <t xml:space="preserve">Raíz enésima de una raíz de números reales  </t>
   </si>
   <si>
-    <t xml:space="preserve">Raíz enésima de un número real expresada como potencia con exponente número racional en forma de fracción </t>
-  </si>
-  <si>
     <t>Radicales equivalentes de números reales</t>
   </si>
   <si>
-    <t xml:space="preserve">Cálculo de radicales equivalentes </t>
-  </si>
-  <si>
     <t>Simplificación de radicales</t>
   </si>
   <si>
@@ -295,13 +256,67 @@
   </si>
   <si>
     <t>Competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situaciones que involucran la potenciación de números reales </t>
+  </si>
+  <si>
+    <t>Potenciación de números reales con exponente fraccionario</t>
+  </si>
+  <si>
+    <t>Operaciones básicas de números reales en notación científica</t>
+  </si>
+  <si>
+    <t>Situaciones con números reales en notación científica</t>
+  </si>
+  <si>
+    <t>Evluación</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Practica operaciones de números reales con radicales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Racionalización de una fracción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencias: aplica la potenciación y radicación de números reales  </t>
+  </si>
+  <si>
+    <t>La potenciación de números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencias con exponentes números enteros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencia con exponente número fraccionario positivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencia con exponente número fraccionario negativo </t>
+  </si>
+  <si>
+    <t>Propiedades de la potenciación de números reales</t>
+  </si>
+  <si>
+    <t>La potenciación y la radicación de números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La radicación de números reales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profundiza </t>
+  </si>
+  <si>
+    <t>Raíz enésima de un número real expresada como potencia con exponente número fraccionario</t>
+  </si>
+  <si>
+    <t>Simplificación de expresiones con radicales aplicando las propiedades de la radicación de números reales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,21 +369,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,24 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -442,69 +432,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -909,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -940,88 +867,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1731,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,22 +1693,22 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1853,231 +1719,211 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2091,7 +1937,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,106 +1958,147 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C13" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="C14" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2268,10 +2155,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2168,7 @@
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -2292,247 +2179,287 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
     </row>
   </sheetData>
@@ -2552,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView topLeftCell="A14" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2492,7 @@
     <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="50" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="79.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2600,1269 +2527,1400 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="G36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="18" t="s">
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="28"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H63" s="23"/>
-      <c r="I63" s="17"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
